--- a/SchedulingData/dynamic13/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>234.62</v>
+        <v>256.7</v>
       </c>
       <c r="D2" t="n">
-        <v>310.54</v>
+        <v>327.52</v>
       </c>
       <c r="E2" t="n">
-        <v>11.576</v>
+        <v>10.908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>251.68</v>
+        <v>251.54</v>
       </c>
       <c r="D3" t="n">
-        <v>300.88</v>
+        <v>303.44</v>
       </c>
       <c r="E3" t="n">
-        <v>11.052</v>
+        <v>13.756</v>
       </c>
     </row>
     <row r="4">
@@ -504,131 +504,131 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>200.78</v>
+        <v>231.7</v>
       </c>
       <c r="D4" t="n">
-        <v>251.06</v>
+        <v>284.38</v>
       </c>
       <c r="E4" t="n">
-        <v>15.444</v>
+        <v>12.712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>251.06</v>
+        <v>236.84</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5</v>
+        <v>272</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>310.5</v>
+        <v>272</v>
       </c>
       <c r="D6" t="n">
-        <v>360.12</v>
+        <v>333.68</v>
       </c>
       <c r="E6" t="n">
-        <v>9.768000000000001</v>
+        <v>10.432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>268.42</v>
+        <v>303.44</v>
       </c>
       <c r="D7" t="n">
-        <v>317.38</v>
+        <v>369.2</v>
       </c>
       <c r="E7" t="n">
-        <v>11.912</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>300.88</v>
+        <v>333.68</v>
       </c>
       <c r="D8" t="n">
-        <v>353.06</v>
+        <v>379</v>
       </c>
       <c r="E8" t="n">
-        <v>7.464</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>215.7</v>
+        <v>229.56</v>
       </c>
       <c r="D9" t="n">
-        <v>266.2</v>
+        <v>279.26</v>
       </c>
       <c r="E9" t="n">
-        <v>15.56</v>
+        <v>10.764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>317.38</v>
+        <v>279.26</v>
       </c>
       <c r="D10" t="n">
-        <v>398</v>
+        <v>309.66</v>
       </c>
       <c r="E10" t="n">
-        <v>7.96</v>
+        <v>8.364000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>360.12</v>
+        <v>284.38</v>
       </c>
       <c r="D11" t="n">
-        <v>412.72</v>
+        <v>340.64</v>
       </c>
       <c r="E11" t="n">
-        <v>6.128</v>
+        <v>10.216</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>412.72</v>
+        <v>327.52</v>
       </c>
       <c r="D12" t="n">
-        <v>477.04</v>
+        <v>367.92</v>
       </c>
       <c r="E12" t="n">
-        <v>3.796</v>
+        <v>8.488</v>
       </c>
     </row>
     <row r="13">
@@ -675,60 +675,60 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>266.2</v>
+        <v>233.68</v>
       </c>
       <c r="D13" t="n">
-        <v>310.78</v>
+        <v>275.8</v>
       </c>
       <c r="E13" t="n">
-        <v>12.232</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>398</v>
+        <v>309.66</v>
       </c>
       <c r="D14" t="n">
-        <v>447.18</v>
+        <v>351.94</v>
       </c>
       <c r="E14" t="n">
-        <v>5.152</v>
+        <v>4.776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>353.06</v>
+        <v>369.2</v>
       </c>
       <c r="D15" t="n">
-        <v>405.46</v>
+        <v>415.76</v>
       </c>
       <c r="E15" t="n">
-        <v>4.824</v>
+        <v>6.784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -736,70 +736,70 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>310.54</v>
+        <v>415.76</v>
       </c>
       <c r="D16" t="n">
-        <v>359.8</v>
+        <v>479.72</v>
       </c>
       <c r="E16" t="n">
-        <v>7.78</v>
+        <v>2.988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>310.78</v>
+        <v>351.94</v>
       </c>
       <c r="D17" t="n">
-        <v>382.8</v>
+        <v>396.36</v>
       </c>
       <c r="E17" t="n">
-        <v>9.640000000000001</v>
+        <v>2.444</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>248.38</v>
+        <v>340.64</v>
       </c>
       <c r="D18" t="n">
-        <v>291.74</v>
+        <v>385.04</v>
       </c>
       <c r="E18" t="n">
-        <v>10.636</v>
+        <v>6.916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>359.8</v>
+        <v>367.92</v>
       </c>
       <c r="D19" t="n">
-        <v>405.96</v>
+        <v>412.5</v>
       </c>
       <c r="E19" t="n">
-        <v>5.284</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="20">
@@ -808,33 +808,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>405.96</v>
+        <v>379</v>
       </c>
       <c r="D20" t="n">
-        <v>461.72</v>
+        <v>428.86</v>
       </c>
       <c r="E20" t="n">
-        <v>1.348</v>
+        <v>5.144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>461.72</v>
+        <v>479.72</v>
       </c>
       <c r="D21" t="n">
-        <v>545.62</v>
+        <v>550.54</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>291.74</v>
+        <v>550.54</v>
       </c>
       <c r="D22" t="n">
-        <v>327.14</v>
+        <v>589.34</v>
       </c>
       <c r="E22" t="n">
-        <v>8.236000000000001</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>477.04</v>
+        <v>428.86</v>
       </c>
       <c r="D23" t="n">
-        <v>525.04</v>
+        <v>478.24</v>
       </c>
       <c r="E23" t="n">
-        <v>0.616</v>
+        <v>2.336</v>
       </c>
     </row>
     <row r="24">
@@ -884,112 +884,112 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525.04</v>
+        <v>385.04</v>
       </c>
       <c r="D24" t="n">
-        <v>590.8099999999999</v>
+        <v>440.36</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>327.14</v>
+        <v>478.24</v>
       </c>
       <c r="D25" t="n">
-        <v>396.12</v>
+        <v>511.14</v>
       </c>
       <c r="E25" t="n">
-        <v>5.428</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>405.46</v>
+        <v>511.14</v>
       </c>
       <c r="D26" t="n">
-        <v>451.44</v>
+        <v>582.6900000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1.856</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>451.44</v>
+        <v>412.5</v>
       </c>
       <c r="D27" t="n">
-        <v>529.53</v>
+        <v>459.9</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>545.62</v>
+        <v>275.8</v>
       </c>
       <c r="D28" t="n">
-        <v>618.02</v>
+        <v>330.3</v>
       </c>
       <c r="E28" t="n">
-        <v>26.92</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>396.12</v>
+        <v>396.36</v>
       </c>
       <c r="D29" t="n">
-        <v>480.68</v>
+        <v>468.27</v>
       </c>
       <c r="E29" t="n">
-        <v>3.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -998,112 +998,112 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>529.53</v>
+        <v>468.27</v>
       </c>
       <c r="D30" t="n">
-        <v>575.29</v>
+        <v>520.77</v>
       </c>
       <c r="E30" t="n">
-        <v>27.624</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>480.68</v>
+        <v>330.3</v>
       </c>
       <c r="D31" t="n">
-        <v>553.1799999999999</v>
+        <v>404.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0.892</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>553.1799999999999</v>
+        <v>404.5</v>
       </c>
       <c r="D32" t="n">
-        <v>623.3</v>
+        <v>448.92</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>4.048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>618.02</v>
+        <v>520.77</v>
       </c>
       <c r="D33" t="n">
-        <v>687.1</v>
+        <v>564.41</v>
       </c>
       <c r="E33" t="n">
-        <v>24.112</v>
+        <v>23.696</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>590.8099999999999</v>
+        <v>459.9</v>
       </c>
       <c r="D34" t="n">
-        <v>646.21</v>
+        <v>547.52</v>
       </c>
       <c r="E34" t="n">
-        <v>27.14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>575.29</v>
+        <v>547.52</v>
       </c>
       <c r="D35" t="n">
-        <v>635.35</v>
+        <v>602.92</v>
       </c>
       <c r="E35" t="n">
-        <v>25.248</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>382.8</v>
+        <v>448.92</v>
       </c>
       <c r="D36" t="n">
-        <v>418.32</v>
+        <v>498.68</v>
       </c>
       <c r="E36" t="n">
-        <v>6.728</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>635.35</v>
+        <v>498.68</v>
       </c>
       <c r="D37" t="n">
-        <v>692.35</v>
+        <v>572.34</v>
       </c>
       <c r="E37" t="n">
-        <v>22.168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
@@ -1150,79 +1150,79 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>418.32</v>
+        <v>572.34</v>
       </c>
       <c r="D38" t="n">
-        <v>478.64</v>
+        <v>612.42</v>
       </c>
       <c r="E38" t="n">
-        <v>3.816</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>447.18</v>
+        <v>582.6900000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>510.62</v>
+        <v>627.67</v>
       </c>
       <c r="E39" t="n">
-        <v>1.928</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>510.62</v>
+        <v>440.36</v>
       </c>
       <c r="D40" t="n">
-        <v>593.46</v>
+        <v>493.06</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>1.364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>593.46</v>
+        <v>493.06</v>
       </c>
       <c r="D41" t="n">
-        <v>656.26</v>
+        <v>562.23</v>
       </c>
       <c r="E41" t="n">
-        <v>25.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1230,13 +1230,32 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>656.26</v>
+        <v>564.41</v>
       </c>
       <c r="D42" t="n">
-        <v>717.76</v>
+        <v>636.21</v>
       </c>
       <c r="E42" t="n">
-        <v>23.84</v>
+        <v>21.616</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond14</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>562.23</v>
+      </c>
+      <c r="D43" t="n">
+        <v>613.71</v>
+      </c>
+      <c r="E43" t="n">
+        <v>27.032</v>
       </c>
     </row>
   </sheetData>
